--- a/src/ExcelsiorAspose.Tests/ComplexTypeWithSplitter.Test.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/ComplexTypeWithSplitter.Test.verified.xlsx
@@ -10,25 +10,43 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$2</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Address</t>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Post Code</t>
   </si>
   <si>
     <t>John Doe</t>
   </si>
   <si>
-    <t>900, Victoria Square, Adelaide, SA, 5000</t>
+    <t>Victoria Square</t>
+  </si>
+  <si>
+    <t>Adelaide</t>
+  </si>
+  <si>
+    <t>SA</t>
   </si>
 </sst>
 </file>
@@ -461,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -472,27 +490,54 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.71428571428571" customWidth="1"/>
-    <col min="2" max="2" width="35.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="11.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="14.7142857142857" customWidth="1"/>
+    <col min="4" max="5" width="9.71428571428571" customWidth="1"/>
+    <col min="6" max="6" width="13.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14" customHeight="1">
+    <row r="1" spans="1:6" ht="14" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="14" customHeight="1">
+    <row r="2" spans="1:6" ht="14" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>900</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B2"/>
+  <autoFilter ref="A1:F2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/ExcelsiorAspose.Tests/ComplexTypeWithSplitter.Test.verified.xlsx
+++ b/src/ExcelsiorAspose.Tests/ComplexTypeWithSplitter.Test.verified.xlsx
@@ -10,25 +10,43 @@
     <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$2</definedName>
   </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Address</t>
+    <t>Street Number</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Post Code</t>
   </si>
   <si>
     <t>John Doe</t>
   </si>
   <si>
-    <t>Address { Number = 900, Street = Victoria Square, City = Adelaide, State = SA, PostCode = 5000 }</t>
+    <t>Victoria Square</t>
+  </si>
+  <si>
+    <t>Adelaide</t>
+  </si>
+  <si>
+    <t>SA</t>
   </si>
 </sst>
 </file>
@@ -461,7 +479,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -472,27 +490,54 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9.71428571428571" customWidth="1"/>
-    <col min="2" max="2" width="50.7142857142857" customWidth="1"/>
+    <col min="2" max="2" width="16.7142857142857" customWidth="1"/>
+    <col min="3" max="3" width="14.7142857142857" customWidth="1"/>
+    <col min="4" max="5" width="9.71428571428571" customWidth="1"/>
+    <col min="6" max="6" width="13.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14" customHeight="1">
+    <row r="1" spans="1:6" ht="14" customHeight="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" ht="27" customHeight="1">
+    <row r="2" spans="1:6" ht="14" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>900</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1">
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B2"/>
+  <autoFilter ref="A1:F2"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>